--- a/Add new/Danh sach lop 0420G1.xlsx
+++ b/Add new/Danh sach lop 0420G1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Downloads\caseStudy1\caseStudy1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codegym\C0420G1 - HUYNH MINH TOAN\Add new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -463,7 +463,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -471,12 +471,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -559,10 +565,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -871,33 +885,33 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="33.875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="79.25" customWidth="1"/>
-    <col min="7" max="7" width="12.875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.25" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="79.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="46.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24.75" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.75" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.25" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>103</v>
       </c>
@@ -942,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -958,7 +972,7 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>139</v>
       </c>
       <c r="G2" s="1">
@@ -986,7 +1000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1002,7 +1016,7 @@
       <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="1">
@@ -1030,45 +1044,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:16" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="18">
         <v>34266</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="17">
         <v>123123</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
         <v>788010101</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1084,7 +1098,7 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>127</v>
       </c>
       <c r="G5" s="1">
@@ -1106,7 +1120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1122,7 +1136,7 @@
       <c r="E6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G6" s="1">
@@ -1150,53 +1164,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="18">
         <v>32790</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="17">
         <v>123123</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17">
         <v>905383793</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1212,7 +1226,7 @@
       <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>135</v>
       </c>
       <c r="G8" s="1">
@@ -1238,51 +1252,51 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="18">
         <v>31617</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="17">
         <v>123123</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17">
         <v>903736122</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1298,7 +1312,7 @@
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="1">
@@ -1324,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1340,7 +1354,7 @@
       <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>129</v>
       </c>
       <c r="G11" s="1">
@@ -1366,7 +1380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1382,7 +1396,7 @@
       <c r="E12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="7">
@@ -1412,7 +1426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1428,7 +1442,7 @@
       <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>142</v>
       </c>
       <c r="G13" s="1">
@@ -1454,95 +1468,95 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="18">
         <v>30948</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="17">
         <v>123123</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17">
         <v>708230984</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
+      <c r="L14" s="17"/>
+      <c r="M14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="18">
         <v>31951</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="17">
         <v>123123</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17">
         <v>905658264</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="17"/>
+      <c r="O15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1558,7 +1572,7 @@
       <c r="E16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="1">
@@ -1588,7 +1602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1604,7 +1618,7 @@
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="7">
@@ -1630,7 +1644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1646,7 +1660,7 @@
       <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>128</v>
       </c>
       <c r="G18" s="1">
@@ -1668,7 +1682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1684,7 +1698,7 @@
       <c r="E19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>134</v>
       </c>
       <c r="G19" s="13">
@@ -1710,7 +1724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1726,7 +1740,7 @@
       <c r="E20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>132</v>
       </c>
       <c r="G20" s="1">
@@ -1769,7 +1783,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1781,7 +1795,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
